--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Spring.033020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Spring.033020.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2571,12 +2571,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3327,12 +3327,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4671,12 +4671,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5763,12 +5763,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5805,12 +5805,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5973,12 +5973,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6057,12 +6057,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
